--- a/biology/Histoire de la zoologie et de la botanique/Josef_Augusta_(paléontologue)/Josef_Augusta_(paléontologue).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Josef_Augusta_(paléontologue)/Josef_Augusta_(paléontologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Josef_Augusta_(pal%C3%A9ontologue)</t>
+          <t>Josef_Augusta_(paléontologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josef Augusta, né le 17 mars 1903 à Boskowitz en margraviat de Moravie et mort le 4 février 1968 à Prague, est un paléontologue, géologue et vulgarisateur scientifique tchécoslovaque. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Josef_Augusta_(pal%C3%A9ontologue)</t>
+          <t>Josef_Augusta_(paléontologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1921 à 1925, Augusta a étudié à l'université Masaryk de Brno. Entre 1933 et 1968, il a occupé le poste de conférencier, professeur et doyen à l'université Charles de Prague. En plus de ses ouvrages scientifiques (environ 120 publications), Augusta a rédigé une vingtaine d'ouvrages de vulgarisation sur la paléontologie destinés principalement à la jeunesse. Son nom est surtout connu pour son association avec le peintre tchèque Zdeněk  Burian pour les reconstitutions de la flore et de la faune fossile. 
 </t>
